--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2917489.7159998</v>
+        <v>3023563.314152644</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8527601.459471866</v>
+        <v>8542753.374599595</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.4571321610379</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>347.3552288176302</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>79.04635399905126</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.197497466651</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474511</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>49.00968176819238</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>98.98102224012321</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.9083821604494</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5442597171374</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>273.9374203512031</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>135.259425062653</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.2299870234509</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>79.70119244397746</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>74.75770077867834</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>36.00502760852073</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705937</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0.6324680438220639</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888319</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387179</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>100.3801551430683</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.9838498346389</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>185.6105502774377</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>71.0584634348817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>32.57570591153918</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127826</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.28101103997165</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>54.29785174158928</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5140508960362</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289454</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1128.666547093599</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>759.7040301531877</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>759.7040301531877</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>1502.132305354679</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1128.666547093599</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1128.666547093599</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>745.7732565618936</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>576.8370736339867</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>426.720434221651</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>426.720434221651</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>279.8304867237406</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>279.8304867237406</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>131.0915885872468</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1514.197050312641</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1514.197050312641</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>1514.197050312641</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.779880275681</v>
+        <v>927.4217213921333</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7903293776634</v>
+        <v>927.4217213921333</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9977502341333</v>
+        <v>927.4217213921333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1279.622812416483</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>1279.622812416483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4252100145765</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4252100145765</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4252100145765</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1896.503151925172</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1527.54063498476</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1169.27493637801</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1169.27493637801</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>758.2890315884022</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>343.2165814333986</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866152</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.40716589034</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X10" t="n">
-        <v>708.9705521677568</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5029,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5051,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5072,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5367,16 +5369,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>1024.063349920563</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>855.1271669926557</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138415</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859347</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859347</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
         <v>631.7012443408905</v>
@@ -5710,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5758,22 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,19 +5834,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286662</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358755</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358755</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776362</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.622461278451</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.426361993331</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
         <v>2419.773435218391</v>
@@ -5935,25 +5937,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>4114.471900408214</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3825.054730371253</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>3597.065179473235</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310364</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310364</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>853.9360528261844</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2345.568987476151</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590559</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118214</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289435</v>
+        <v>2418.621364762388</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505193</v>
+        <v>2913.946970978147</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276705</v>
+        <v>3511.325458604698</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831312</v>
+        <v>4138.923422159305</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070599</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445482</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630049</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C34" t="n">
-        <v>776.466420735098</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227623</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403692</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403692</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552491</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.900449534062</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372933</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>853.594109445026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326902</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346703</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203173</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,16 +7168,16 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921476</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>989.3306680894888</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556949</v>
+        <v>820.3944851615819</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433592</v>
+        <v>670.2778457492461</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>522.364752166853</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>375.4748046689426</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7366,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075798</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118214</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289435</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.06265415652</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.06265415652</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711127</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7561,10 +7563,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7600,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385792</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.914133601551</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228103</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.89058478271</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021997</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.843151638089</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683287</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.25823202432787</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10838,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-2.067233359390426e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>146.0084629450597</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>73.85777223953401</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>143.8269525734166</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597549</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903265</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>251.5051752800059</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>205.844576940154</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>80.03780599355809</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434057</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>80.6461308585763</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.310863011584928</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>66.52709304639026</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168747</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>193.133949477498</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652909</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2431272522972</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>125.534128440348</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.0089474405548</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968247</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>746866.8644230153</v>
+        <v>754591.3701744074</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>746866.8644230153</v>
+        <v>754591.3701744074</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365052</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
@@ -26335,22 +26337,22 @@
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309554</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744331</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744331</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744244</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744246</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744249</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744344</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744226</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744253</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-826707.4730674403</v>
+        <v>-645326.1886081072</v>
       </c>
       <c r="C6" t="n">
-        <v>502037.2726601523</v>
+        <v>469425.5949678129</v>
       </c>
       <c r="D6" t="n">
-        <v>502037.2726601519</v>
+        <v>309410.1322198143</v>
       </c>
       <c r="E6" t="n">
-        <v>250812.3617134989</v>
+        <v>250812.3617134984</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.8235208538</v>
+        <v>576224.8235208542</v>
       </c>
       <c r="G6" t="n">
-        <v>576224.823520854</v>
+        <v>576224.8235208542</v>
       </c>
       <c r="H6" t="n">
         <v>576224.8235208543</v>
       </c>
       <c r="I6" t="n">
-        <v>576224.8235208541</v>
+        <v>576224.8235208542</v>
       </c>
       <c r="J6" t="n">
-        <v>358693.6211235764</v>
+        <v>408619.6457108718</v>
       </c>
       <c r="K6" t="n">
         <v>576224.8235208543</v>
       </c>
       <c r="L6" t="n">
-        <v>576224.8235208545</v>
+        <v>527930.8535126634</v>
       </c>
       <c r="M6" t="n">
-        <v>491169.7955853427</v>
+        <v>491169.795585342</v>
       </c>
       <c r="N6" t="n">
         <v>576224.8235208541</v>
       </c>
       <c r="O6" t="n">
-        <v>576224.8235208546</v>
+        <v>576224.8235208545</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208543</v>
+        <v>576224.8235208545</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>289.8157596099696</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.885739899782834</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.7502412048493</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3514518095182098</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887355</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.2632100028152</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>80.85095794181409</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.67627119164538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463432</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>20.6703440361174</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>54.50960026878889</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.47966836558621</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29749,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31996,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,31 +32311,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935915</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32552,22 +32554,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>453.7122424932249</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318521</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>175.605272155109</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578885</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724557</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,19 +33973,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375116</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>189.0011860882997</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33995,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34208,25 +34210,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>506.0735392239789</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>263.9377611478602</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>560.2586790698755</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35890,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36124,7 +36126,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>322.3705304098916</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36437,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175218</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075003</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587019</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280113</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37558,7 +37560,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>73.1808046631526</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>57.65947400496642</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3023563.314152644</v>
+        <v>3019467.672647879</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8542753.374599595</v>
+        <v>8542753.374599596</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0.8165095851522483</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>347.3552288176302</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>9.908803714539452</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>79.04635399905126</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>49.00968176819238</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>147.4967094207933</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.98102224012321</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>273.9374203512031</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>177.2979137777592</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>135.259425062653</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>213.4383553921879</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>79.70119244397746</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>74.75770077867834</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.00502760852073</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>15.51491006411178</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6324680438220639</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>19.86507844888319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.44001103519371</v>
       </c>
       <c r="H28" t="n">
-        <v>60.25690685266579</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>127.996768116959</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>100.3801551430683</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>42.54416032354796</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>185.6105502774377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>32.57570591153918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.28101103997165</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.29785174158928</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1128.666547093599</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C2" t="n">
-        <v>759.7040301531877</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>759.7040301531877</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549434</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2561.514571243436</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2561.514571243436</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2307.933510507616</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1976.870623164045</v>
       </c>
       <c r="W2" t="n">
-        <v>1502.132305354679</v>
+        <v>1624.101967893931</v>
       </c>
       <c r="X2" t="n">
-        <v>1128.666547093599</v>
+        <v>1250.636209632851</v>
       </c>
       <c r="Y2" t="n">
-        <v>1128.666547093599</v>
+        <v>860.4968776570395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
         <v>2239.046898434119</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>745.7732565618936</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C4" t="n">
-        <v>576.8370736339867</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D4" t="n">
-        <v>426.720434221651</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>426.720434221651</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>279.8304867237406</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>279.8304867237406</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>131.0915885872468</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.838891429094</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>927.4217213921333</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>927.4217213921333</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>927.4217213921333</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1279.622812416483</v>
+        <v>1802.273730074954</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.118083357703</v>
+        <v>1433.311213134543</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>1075.045514527792</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>689.2572619295479</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>278.2713571399403</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>266.6070109046333</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>1669.762144392295</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.762144392295</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1279.622812416483</v>
+        <v>2188.873570139076</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1896.503151925172</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1527.54063498476</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.27493637801</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1169.27493637801</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>758.2890315884022</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>343.2165814333986</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.102991989294</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1790.668866207025</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1790.668866207025</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1790.668866207025</v>
+        <v>1711.700249712546</v>
       </c>
       <c r="V10" t="n">
-        <v>1790.668866207025</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="W10" t="n">
-        <v>1501.251696170064</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5196,7 +5196,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5238,13 +5238,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5369,16 +5369,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518647</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1024.063349920563</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>855.1271669926557</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,13 +5503,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5518,37 +5518,37 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5667,10 +5667,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5712,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3194.624135499465</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C22" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2431.291457252875</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1922.614765620014</v>
       </c>
       <c r="V22" t="n">
-        <v>4114.471900408214</v>
+        <v>1667.930277414127</v>
       </c>
       <c r="W22" t="n">
-        <v>3825.054730371253</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X22" t="n">
-        <v>3597.065179473235</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.272600329705</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841094</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
         <v>402.7245934908938</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>301.5721730233224</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F28" t="n">
-        <v>154.6822255254121</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G28" t="n">
-        <v>154.6822255254121</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2345.568987476151</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2125.967522499092</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.89229584329</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.207807637403</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>2418.621364762388</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>2913.946970978147</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3511.325458604698</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159305</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233313</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.900449534062</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.483279497101</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.483279497101</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.6907003535711</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7016,19 +7016,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.379442165859</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>989.3306680894888</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>820.3944851615819</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>670.2778457492461</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>522.364752166853</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>375.4748046689426</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1170.979132919728</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14.25823202432787</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-4.505326036930149e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-2.067233359390426e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>146.0084629450597</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>73.85777223953401</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.8269525734166</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>165.5113759375328</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>251.5051752800059</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>205.844576940154</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="H28" t="n">
-        <v>80.03780599355809</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>37.52737017530985</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>80.6461308585763</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>137.2878198583893</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>66.52709304639026</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>193.133949477498</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2431272522972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.534128440348</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551165</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,13 +26423,13 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309551</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744226</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744284</v>
@@ -26438,7 +26438,7 @@
         <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26447,13 +26447,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744253</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-645326.1886081072</v>
+        <v>-645326.1886081065</v>
       </c>
       <c r="C6" t="n">
-        <v>469425.5949678129</v>
+        <v>469425.5949678128</v>
       </c>
       <c r="D6" t="n">
-        <v>309410.1322198143</v>
+        <v>309410.1322198138</v>
       </c>
       <c r="E6" t="n">
-        <v>250812.3617134984</v>
+        <v>250464.9824591417</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.444266497</v>
       </c>
       <c r="G6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.4442664976</v>
       </c>
       <c r="H6" t="n">
-        <v>576224.8235208543</v>
+        <v>575877.4442664972</v>
       </c>
       <c r="I6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.4442664974</v>
       </c>
       <c r="J6" t="n">
-        <v>408619.6457108718</v>
+        <v>408272.2664565148</v>
       </c>
       <c r="K6" t="n">
-        <v>576224.8235208543</v>
+        <v>575877.4442664976</v>
       </c>
       <c r="L6" t="n">
-        <v>527930.8535126634</v>
+        <v>527583.4742583069</v>
       </c>
       <c r="M6" t="n">
-        <v>491169.795585342</v>
+        <v>490822.4163309857</v>
       </c>
       <c r="N6" t="n">
-        <v>576224.8235208541</v>
+        <v>575877.4442664974</v>
       </c>
       <c r="O6" t="n">
-        <v>576224.8235208545</v>
+        <v>575877.4442664973</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208545</v>
+        <v>575877.4442664973</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,22 +26792,22 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.6357058136421</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.885739899782834</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>157.3380173840884</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>25.7502412048493</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>316.2632100028152</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>153.521843141612</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.85095794181409</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386500999</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>20.6703440361174</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4543446923757</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>54.50960026878889</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>72.77348281342501</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>750.6021172789102</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32101,10 +32101,10 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135882</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,22 +32311,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>395.1848490935915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32338,7 +32338,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32551,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>453.7122424932249</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32572,7 +32572,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>381.6404378718164</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>147.4873481937412</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.605272155109</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>512.9101366533177</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>506.0735392239789</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>263.9377611478602</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>560.2586790698755</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>619.2604051955769</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962425</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>253.0508151715732</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35986,7 +35986,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>322.3705304098916</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36220,7 +36220,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>243.7989988974574</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.64972152707456</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075003</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>370.3138922088733</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>372.0991318096486</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3019467.672647879</v>
+        <v>3021228.202950662</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>11.87224227536608</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8165095851522483</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>41.12531087826506</v>
       </c>
       <c r="C4" t="n">
-        <v>9.908803714539452</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6580847920594</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>147.4967094207933</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>50.9807481254283</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>105.9626607935848</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.2979137777592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>213.4383553921879</v>
+        <v>261.8409498966705</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176204</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>15.51491006411178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128881</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>59.44001103519371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>249.6700188375714</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>127.996768116959</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.54416032354796</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>113.541358075969</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>206.5509998577711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.8970375929177</v>
+        <v>141.2769458819329</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>141.2769458819329</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>141.2769458819329</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>141.2769458819329</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2561.514571243436</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2561.514571243436</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2307.933510507616</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>1976.870623164045</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.101967893931</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X2" t="n">
-        <v>1250.636209632851</v>
+        <v>918.0161179218665</v>
       </c>
       <c r="Y2" t="n">
-        <v>860.4968776570395</v>
+        <v>527.8767859460547</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380231</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598622</v>
+        <v>602.021613731249</v>
       </c>
       <c r="C4" t="n">
-        <v>451.9049743189132</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
         <v>451.9049743189132</v>
@@ -4485,55 +4485,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901019</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1802.273730074954</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="C5" t="n">
-        <v>1433.311213134543</v>
+        <v>690.403225888617</v>
       </c>
       <c r="D5" t="n">
-        <v>1075.045514527792</v>
+        <v>332.1375272818665</v>
       </c>
       <c r="E5" t="n">
-        <v>689.2572619295479</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F5" t="n">
-        <v>278.2713571399403</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>266.6070109046333</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230818</v>
@@ -4606,13 +4606,13 @@
         <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400156</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y5" t="n">
-        <v>2188.873570139076</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082458</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.831862022881</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.147373816994</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.730203780033</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>772.7406528820156</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.9480737384855</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1381.278680221569</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>626.527910682913</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>215.5420058933054</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1767.878520285691</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.5851666348717</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1711.700249712546</v>
+        <v>1662.808740112058</v>
       </c>
       <c r="V10" t="n">
-        <v>1457.015761506659</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="W10" t="n">
-        <v>1457.015761506659</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X10" t="n">
-        <v>1229.026210608642</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y10" t="n">
-        <v>1008.233631465111</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5369,16 +5369,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,22 +5746,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,22 +5825,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>454.6048385560544</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>949.9304447718132</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
         <v>1577.52840832642</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2431.291457252875</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2211.689992275817</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1922.614765620014</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.930277414127</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.513107377167</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1150.523556479149</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.7309773356194</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
         <v>776.1751066403293</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>377.6556127449245</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="29">
@@ -6451,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>594.8179559048583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>446.9048623224652</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>446.9048623224652</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-4.505326036930149e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>165.5113759375328</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>35.11263957635606</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>106.0841272570751</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>36.51445555167274</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>37.52737017530985</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137.2878198583893</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.89260457060013</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>10.85445046951719</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365051</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551165</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,19 +26426,19 @@
         <v>87914.29116309551</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744226</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-645326.1886081065</v>
+        <v>-645326.1886081072</v>
       </c>
       <c r="C6" t="n">
-        <v>469425.5949678128</v>
+        <v>469425.5949678131</v>
       </c>
       <c r="D6" t="n">
-        <v>309410.1322198138</v>
+        <v>309410.1322198139</v>
       </c>
       <c r="E6" t="n">
-        <v>250464.9824591417</v>
+        <v>250777.6237880631</v>
       </c>
       <c r="F6" t="n">
-        <v>575877.444266497</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="G6" t="n">
-        <v>575877.4442664976</v>
+        <v>576190.0855954183</v>
       </c>
       <c r="H6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="I6" t="n">
-        <v>575877.4442664974</v>
+        <v>576190.0855954186</v>
       </c>
       <c r="J6" t="n">
-        <v>408272.2664565148</v>
+        <v>408584.9077854358</v>
       </c>
       <c r="K6" t="n">
-        <v>575877.4442664976</v>
+        <v>576190.0855954186</v>
       </c>
       <c r="L6" t="n">
-        <v>527583.4742583069</v>
+        <v>527896.1155872279</v>
       </c>
       <c r="M6" t="n">
-        <v>490822.4163309857</v>
+        <v>491135.0576599069</v>
       </c>
       <c r="N6" t="n">
-        <v>575877.4442664974</v>
+        <v>576190.0855954183</v>
       </c>
       <c r="O6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="P6" t="n">
-        <v>575877.4442664973</v>
+        <v>576190.0855954185</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>395.0038034663453</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>122.6357058136421</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>138.7066693036722</v>
       </c>
       <c r="C4" t="n">
-        <v>157.3380173840884</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.2722852802024</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>153.521843141612</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>50.57682429414532</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>195.5290386500999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>304.9590648598686</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>150.4543446923757</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>72.77348281342501</v>
+        <v>24.37088830894237</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>750.6021172789102</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>639.8517673857158</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543355</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313203</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>619.2604051955769</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>508.5100553023825</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997653</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
